--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronnie\Desktop\Python-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2336B56-AFD6-4D89-A424-D4DA7F9F653A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B761361B-C007-438A-A60F-91469ECE9BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>nome</t>
   </si>
@@ -54,16 +54,19 @@
     <t>005</t>
   </si>
   <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
     <t>pessoa1</t>
   </si>
   <si>
     <t>pessoa2</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ \-\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Arial Black"/>
@@ -167,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -186,10 +181,25 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="5" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -204,34 +214,6 @@
       <right style="thin">
         <color theme="5" tint="-0.249977111117893"/>
       </right>
-      <top style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="5" tint="-0.249977111117893"/>
@@ -296,17 +278,6 @@
         <color theme="5" tint="-0.249977111117893"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -325,66 +296,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
+  <autoFilter ref="A1:D9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nome" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="inicio" dataDxfId="2"/>
@@ -861,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,128 +897,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="16">
-        <v>44734.63082175926</v>
-      </c>
-      <c r="C2" s="9">
-        <v>44734.725949074076</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44738.63082175926</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44738.725949074076</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
         <v>44736.416666666664</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>44736.621527777781</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
         <v>44736.479166666664</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>44736.643055555556</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
         <v>44736.375</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>44736.645833333336</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>44736.46875</v>
-      </c>
-      <c r="C6" s="7">
-        <v>44736.675000000003</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20"/>
+      <c r="A6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44736.665277777778</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44736.669768518521</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
+      <c r="A7" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="5">
-        <v>44740.590277777781</v>
+        <v>44736.46875</v>
       </c>
       <c r="C7" s="5">
-        <v>44740.670138888891</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>9</v>
-      </c>
+        <v>44736.675000000003</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44740.590277777781</v>
+      </c>
+      <c r="C8" s="22">
+        <v>44740.670138888891</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+    </row>
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19">
         <v>44741.665277777778</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C9" s="20">
         <v>44741.669768518521</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="14"/>
+      <c r="D9" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronnie\Desktop\Python-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B761361B-C007-438A-A60F-91469ECE9BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F2FDA3-D488-44CD-BD2D-B82AA0D436B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>nome</t>
   </si>
@@ -39,44 +39,21 @@
     <t>chamado</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
     <t>pessoa1</t>
   </si>
   <si>
     <t>pessoa2</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ \-\ hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +112,14 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -343,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,36 +360,37 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,10 +399,43 @@
   <dxfs count="7">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -424,8 +443,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="5" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -554,45 +593,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Arial Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="5" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -607,13 +607,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5" headerRowBorderDxfId="6">
   <autoFilter ref="A1:D9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nome" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="inicio" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="final" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1D965AD6-2553-45C1-8F33-CBFFCBE4F0F3}" name="chamado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nome" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="inicio" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="final" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1D965AD6-2553-45C1-8F33-CBFFCBE4F0F3}" name="chamado" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A10:D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,22 +897,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="12">
         <v>44738.63082175926</v>
@@ -920,13 +920,13 @@
       <c r="C2" s="7">
         <v>44738.725949074076</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>4</v>
+      <c r="D2" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>44736.416666666664</v>
@@ -934,13 +934,13 @@
       <c r="C3" s="4">
         <v>44736.621527777781</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>5</v>
+      <c r="D3" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7">
         <v>44736.479166666664</v>
@@ -948,13 +948,13 @@
       <c r="C4" s="8">
         <v>44736.643055555556</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
+      <c r="D4" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>44736.375</v>
@@ -962,28 +962,28 @@
       <c r="C5" s="9">
         <v>44736.645833333336</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>7</v>
+      <c r="D5" s="18">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
         <v>44736.665277777778</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="21">
         <v>44736.669768518521</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="D6" s="18">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>44736.46875</v>
@@ -991,41 +991,47 @@
       <c r="C7" s="5">
         <v>44736.675000000003</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18">
         <v>8</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44740.590277777781</v>
+      </c>
+      <c r="C8" s="17">
+        <v>44740.670138888891</v>
+      </c>
+      <c r="D8" s="18">
         <v>9</v>
       </c>
-      <c r="B8" s="21">
-        <v>44740.590277777781</v>
-      </c>
-      <c r="C8" s="22">
-        <v>44740.670138888891</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14">
+        <v>44741.665277777778</v>
+      </c>
+      <c r="C9" s="15">
+        <v>44741.669768518521</v>
+      </c>
+      <c r="D9" s="18">
         <v>10</v>
       </c>
-      <c r="B9" s="19">
-        <v>44741.665277777778</v>
-      </c>
-      <c r="C9" s="20">
-        <v>44741.669768518521</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="19"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronnie\Desktop\Python proj\Python-xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B0EE31-5F7C-4272-BCEF-42C29C91A24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1020" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,9 +37,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -58,13 +52,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -116,60 +110,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D8" displayName="Tabela1" name="Tabela1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nome"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="inicio"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="final"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="chamado"/>
+    <tableColumn name="nome" id="1"/>
+    <tableColumn name="inicio" id="2"/>
+    <tableColumn name="final" id="3"/>
+    <tableColumn name="chamado" id="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -178,10 +180,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -219,71 +221,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,7 +313,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -334,11 +336,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -347,13 +349,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -363,7 +365,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -372,7 +374,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -381,7 +383,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -389,10 +391,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -457,27 +459,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,138 +492,141 @@
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>44738.63082175926</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>44738.725949074076</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>44736.416666666664</v>
       </c>
-      <c r="C3" s="5">
-        <v>44736.621527777781</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="6">
+        <v>44736.62152777778</v>
+      </c>
+      <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>44736.479166666664</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>44736.643055555556</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>44736.375</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>44736.645833333336</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44736.46875</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44736.675</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="6">
+        <v>44740.59027777778</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44740.67013888889</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>44736.46875</v>
-      </c>
-      <c r="C6" s="5">
-        <v>44736.675000000003</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>44740.590277777781</v>
-      </c>
-      <c r="C7" s="5">
-        <v>44740.670138888891</v>
-      </c>
-      <c r="D7" s="6">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44741.665277777778</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44741.669768518521</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="6">
+        <v>44741.66527777778</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44771</v>
+      </c>
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>